--- a/Turnir 2025/Ucesnici 2025.xlsx
+++ b/Turnir 2025/Ucesnici 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejan\code\dejosub\sahovski-turniri\Turnir 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59432795-93B2-4B12-98A7-B3A8F538C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575D21C-1209-4E6F-AA3B-2A66BD1FAF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="2025" windowWidth="35070" windowHeight="22425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33000" yWindow="6885" windowWidth="35070" windowHeight="22425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,6 +176,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>99579</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>43295</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>839932</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>277956</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Ажурирај</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,365 +556,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>30</v>
-      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>30</v>
-      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>30</v>
-      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="D9" s="2"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
-        <v>30</v>
-      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>30</v>
-      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
-        <v>30</v>
-      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="D16" s="2"/>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
-        <v>30</v>
-      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="D18" s="2"/>
+      <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D20" s="2"/>
+      <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2">
-        <f>SUM(B1:B21)</f>
-        <v>230</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1">
-        <f>SUM(D1:D21)</f>
-        <v>19</v>
-      </c>
+      <c r="C24" s="2">
+        <f>SUM(C1:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="1">
         <f>SUM(E1:E21)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1">
         <f>SUM(F1:F21)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <f>SUM(G1:G21)</f>
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <f>SUM(H1:H21)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
-    <sortCondition ref="A2:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H28">
+    <sortCondition ref="B2:B28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Azuriraj_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
